--- a/Example/Excel/Item.xlsx
+++ b/Example/Excel/Item.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DollStory\trunk\Projects\DollStory\doc\NewTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VCS\HiExcel2Protobuf\Example\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEDF6FB5-8CBC-408D-9D81-EB36C48AF83E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FDFF09D-89CA-4BD5-BB5F-57A2A7905DDA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="-120" windowWidth="27840" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4350" yWindow="945" windowWidth="23445" windowHeight="12825" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="版本记录" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
   <si>
     <t>修改人</t>
   </si>
@@ -33,15 +33,6 @@
     <t>修改描述</t>
   </si>
   <si>
-    <t>张帆</t>
-  </si>
-  <si>
-    <t>2020.02.28</t>
-  </si>
-  <si>
-    <t>按照策划文档创建</t>
-  </si>
-  <si>
     <t>制作配方表</t>
   </si>
   <si>
@@ -97,27 +88,6 @@
   </si>
   <si>
     <t>货币</t>
-  </si>
-  <si>
-    <t>Titu02</t>
-  </si>
-  <si>
-    <t>黄染剂</t>
-  </si>
-  <si>
-    <t>染剂</t>
-  </si>
-  <si>
-    <t>prop_30003</t>
-  </si>
-  <si>
-    <t>木头</t>
-  </si>
-  <si>
-    <t>材料</t>
-  </si>
-  <si>
-    <t>prop_30205</t>
   </si>
   <si>
     <t>ProtoBuf_VarName</t>
@@ -156,23 +126,39 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Dsdb</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>堆叠数量，1为不堆叠，大于1为堆叠最大数量,-1为无限堆叠</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>DS.Game.MVC.Proxies.Data.PrototypeData</t>
+    <t>com.defaultPkg</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CS_PKG_NAME</t>
+  </si>
+  <si>
+    <r>
+      <t>j</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>inbi</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,6 +192,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -424,7 +418,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -499,6 +493,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -778,7 +775,7 @@
   <dimension ref="B2:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B3" sqref="B3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -800,15 +797,9 @@
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B3" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>5</v>
-      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="14"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" s="15"/>
@@ -886,8 +877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -902,131 +893,131 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1038,10 +1029,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1073,28 +1064,28 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1102,16 +1093,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>34</v>
       </c>
       <c r="F2">
         <v>-1</v>
@@ -1121,52 +1112,6 @@
       </c>
       <c r="H2">
         <v>-1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>100</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3">
-        <v>99</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>1000</v>
-      </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4">
-        <v>99</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Example/Excel/Item.xlsx
+++ b/Example/Excel/Item.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VCS\HiExcel2Protobuf\Example\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VCS\DollStoryGit\Projects\DollStory\doc\NewTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FDFF09D-89CA-4BD5-BB5F-57A2A7905DDA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB95B9B-7681-47E9-B158-2795CF0A13D9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4350" yWindow="945" windowWidth="23445" windowHeight="12825" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5160" yWindow="750" windowWidth="23445" windowHeight="12825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="版本记录" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
   <si>
     <t>修改人</t>
   </si>
@@ -33,7 +33,13 @@
     <t>修改描述</t>
   </si>
   <si>
-    <t>制作配方表</t>
+    <t>张帆</t>
+  </si>
+  <si>
+    <t>2020.02.28</t>
+  </si>
+  <si>
+    <t>按照策划文档创建</t>
   </si>
   <si>
     <t>描述</t>
@@ -90,6 +96,27 @@
     <t>货币</t>
   </si>
   <si>
+    <t>Titu02</t>
+  </si>
+  <si>
+    <t>黄染剂</t>
+  </si>
+  <si>
+    <t>染剂</t>
+  </si>
+  <si>
+    <t>prop_30003</t>
+  </si>
+  <si>
+    <t>木头</t>
+  </si>
+  <si>
+    <t>材料</t>
+  </si>
+  <si>
+    <t>prop_30205</t>
+  </si>
+  <si>
     <t>ProtoBuf_VarName</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -126,32 +153,32 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>Dsdb</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>堆叠数量，1为不堆叠，大于1为堆叠最大数量,-1为无限堆叠</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>com.defaultPkg</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CS_PKG_NAME</t>
-  </si>
-  <si>
-    <r>
-      <t>j</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>inbi</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>DS.Game.MVC.Proxies.Data.PrototypeData</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>张帆</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.03.04</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改表说明，方便配合使用导表工具使用</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -418,7 +445,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -494,7 +521,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -774,8 +807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -797,14 +830,26 @@
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B3" s="12"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="14"/>
+      <c r="B3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B4" s="15"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17"/>
+      <c r="B4" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5" s="15"/>
@@ -877,9 +922,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -893,131 +936,131 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1029,10 +1072,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1064,28 +1107,28 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1093,16 +1136,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>34</v>
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
       </c>
       <c r="F2">
         <v>-1</v>
@@ -1112,6 +1155,52 @@
       </c>
       <c r="H2">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>100</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3">
+        <v>99</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1000</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4">
+        <v>99</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
